--- a/Fused Silica results/Fused Silica test losses.xlsx
+++ b/Fused Silica results/Fused Silica test losses.xlsx
@@ -468,37 +468,37 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>22.67173385620117</v>
+        <v>24.03887748718262</v>
       </c>
       <c r="B2">
-        <v>8.727130889892578</v>
+        <v>9.549456596374512</v>
       </c>
       <c r="C2">
-        <v>4.780083656311035</v>
+        <v>4.549957752227783</v>
       </c>
       <c r="D2">
-        <v>7.067539215087891</v>
+        <v>5.722933292388916</v>
       </c>
       <c r="E2">
-        <v>7.010096549987793</v>
+        <v>6.196683406829834</v>
       </c>
       <c r="F2">
-        <v>6.590109825134277</v>
+        <v>7.206887245178223</v>
       </c>
       <c r="G2">
-        <v>7.473728179931641</v>
+        <v>8.687005996704102</v>
       </c>
       <c r="H2">
-        <v>6.206431865692139</v>
+        <v>8.22203540802002</v>
       </c>
       <c r="I2">
-        <v>5.172544002532959</v>
+        <v>6.783039569854736</v>
       </c>
       <c r="J2">
-        <v>3.102301597595215</v>
+        <v>2.982917070388794</v>
       </c>
       <c r="K2">
-        <v>2.66595983505249</v>
+        <v>1.931353449821472</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -506,37 +506,37 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>50.95763778686523</v>
+        <v>90.734619140625</v>
       </c>
       <c r="B3">
-        <v>42.06190872192383</v>
+        <v>69.77284240722656</v>
       </c>
       <c r="C3">
-        <v>35.55503082275391</v>
+        <v>52.51095199584961</v>
       </c>
       <c r="D3">
-        <v>26.64330291748047</v>
+        <v>33.08608245849609</v>
       </c>
       <c r="E3">
-        <v>17.14876937866211</v>
+        <v>13.39360618591309</v>
       </c>
       <c r="F3">
-        <v>9.341133117675781</v>
+        <v>21.14276695251465</v>
       </c>
       <c r="G3">
-        <v>10.52724838256836</v>
+        <v>23.55165863037109</v>
       </c>
       <c r="H3">
-        <v>11.52999019622803</v>
+        <v>22.05848693847656</v>
       </c>
       <c r="I3">
-        <v>10.83565044403076</v>
+        <v>19.1942253112793</v>
       </c>
       <c r="J3">
-        <v>3.786087036132812</v>
+        <v>11.5045919418335</v>
       </c>
       <c r="K3">
-        <v>2.793041706085205</v>
+        <v>2.353726387023926</v>
       </c>
       <c r="L3" t="s">
         <v>13</v>
@@ -544,37 +544,37 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>30.7397403717041</v>
+        <v>58.95395660400391</v>
       </c>
       <c r="B4">
-        <v>19.09165954589844</v>
+        <v>39.90049362182617</v>
       </c>
       <c r="C4">
-        <v>14.46593475341797</v>
+        <v>28.33512115478516</v>
       </c>
       <c r="D4">
-        <v>11.2694787979126</v>
+        <v>17.04740524291992</v>
       </c>
       <c r="E4">
-        <v>7.625082969665527</v>
+        <v>6.582779407501221</v>
       </c>
       <c r="F4">
-        <v>7.492613315582275</v>
+        <v>15.92653656005859</v>
       </c>
       <c r="G4">
-        <v>9.836949348449707</v>
+        <v>18.85659980773926</v>
       </c>
       <c r="H4">
-        <v>10.3872594833374</v>
+        <v>17.6731071472168</v>
       </c>
       <c r="I4">
-        <v>9.096402168273926</v>
+        <v>15.23508834838867</v>
       </c>
       <c r="J4">
-        <v>3.293755769729614</v>
+        <v>6.620418548583984</v>
       </c>
       <c r="K4">
-        <v>3.271679639816284</v>
+        <v>1.802250981330872</v>
       </c>
       <c r="L4" t="s">
         <v>14</v>
@@ -582,37 +582,37 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>23.59564018249512</v>
+        <v>28.50191497802734</v>
       </c>
       <c r="B5">
-        <v>12.32657718658447</v>
+        <v>17.16014099121094</v>
       </c>
       <c r="C5">
-        <v>8.667496681213379</v>
+        <v>12.57619094848633</v>
       </c>
       <c r="D5">
-        <v>8.970405578613281</v>
+        <v>10.08569717407227</v>
       </c>
       <c r="E5">
-        <v>8.271114349365234</v>
+        <v>7.269357681274414</v>
       </c>
       <c r="F5">
-        <v>6.643543720245361</v>
+        <v>6.081478118896484</v>
       </c>
       <c r="G5">
-        <v>7.236474514007568</v>
+        <v>6.94462776184082</v>
       </c>
       <c r="H5">
-        <v>5.903038501739502</v>
+        <v>6.505180835723877</v>
       </c>
       <c r="I5">
-        <v>4.702139377593994</v>
+        <v>5.148233413696289</v>
       </c>
       <c r="J5">
-        <v>3.35622763633728</v>
+        <v>4.962842464447021</v>
       </c>
       <c r="K5">
-        <v>2.71182918548584</v>
+        <v>2.460047245025635</v>
       </c>
       <c r="L5" t="s">
         <v>15</v>
@@ -620,37 +620,37 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>22.80397415161133</v>
+        <v>23.87301063537598</v>
       </c>
       <c r="B6">
-        <v>10.83193874359131</v>
+        <v>12.7520923614502</v>
       </c>
       <c r="C6">
-        <v>7.977096080780029</v>
+        <v>7.994390487670898</v>
       </c>
       <c r="D6">
-        <v>9.062729835510254</v>
+        <v>7.702095508575439</v>
       </c>
       <c r="E6">
-        <v>8.125943183898926</v>
+        <v>6.647534370422363</v>
       </c>
       <c r="F6">
-        <v>6.488278865814209</v>
+        <v>7.250016689300537</v>
       </c>
       <c r="G6">
-        <v>7.298830509185791</v>
+        <v>8.886704444885254</v>
       </c>
       <c r="H6">
-        <v>5.739710807800293</v>
+        <v>7.848946571350098</v>
       </c>
       <c r="I6">
-        <v>4.811586380004883</v>
+        <v>6.63493537902832</v>
       </c>
       <c r="J6">
-        <v>3.138107299804688</v>
+        <v>3.277244806289673</v>
       </c>
       <c r="K6">
-        <v>2.588778495788574</v>
+        <v>1.840433359146118</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
